--- a/VersionRecords/Version 5.0.1.2/版本Bug和特性计划及评审表v5.0.1.2_架构组.xlsx
+++ b/VersionRecords/Version 5.0.1.2/版本Bug和特性计划及评审表v5.0.1.2_架构组.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27345" windowHeight="13365"/>
@@ -14,12 +14,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.1.2新特性|Fix Bug'!$A$1:$S$7</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -127,12 +127,20 @@
     <t>BS、房东PC、房东APP、租客APP</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -443,7 +451,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2">
-    <tableStyle name="MySqlDefault" count="2">
+    <tableStyle name="MySqlDefault" count="1">
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
@@ -783,14 +791,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="12" customWidth="1"/>
@@ -814,7 +822,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -873,7 +881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="30" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -908,16 +916,22 @@
       <c r="L2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="26"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="26"/>
+      <c r="M2" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="23">
+        <v>42633</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>35</v>
+      </c>
       <c r="P2" s="29"/>
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
       <c r="S2" s="26"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A3" s="15">
         <v>4</v>
       </c>
@@ -941,7 +955,7 @@
       <c r="S3" s="31"/>
       <c r="T3" s="32"/>
     </row>
-    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A4" s="15">
         <v>5</v>
       </c>
@@ -965,7 +979,7 @@
       <c r="S4" s="31"/>
       <c r="T4" s="32"/>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A5" s="15">
         <v>6</v>
       </c>
@@ -989,7 +1003,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="32"/>
     </row>
-    <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A6" s="15">
         <v>7</v>
       </c>
@@ -1013,7 +1027,7 @@
       <c r="S6" s="31"/>
       <c r="T6" s="32"/>
     </row>
-    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A7" s="15">
         <v>8</v>
       </c>
@@ -1037,7 +1051,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A8" s="15"/>
       <c r="B8" s="18"/>
       <c r="C8" s="17"/>
@@ -1059,7 +1073,7 @@
       <c r="S8" s="31"/>
       <c r="T8" s="32"/>
     </row>
-    <row r="9" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A9" s="15"/>
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
@@ -1081,7 +1095,7 @@
       <c r="S9" s="31"/>
       <c r="T9" s="32"/>
     </row>
-    <row r="10" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A10" s="15"/>
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
@@ -1103,7 +1117,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="32"/>
     </row>
-    <row r="11" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A11" s="15"/>
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
@@ -1125,7 +1139,7 @@
       <c r="S11" s="31"/>
       <c r="T11" s="32"/>
     </row>
-    <row r="12" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A12" s="15"/>
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
@@ -1147,7 +1161,7 @@
       <c r="S12" s="31"/>
       <c r="T12" s="32"/>
     </row>
-    <row r="13" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A13" s="15"/>
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
@@ -1169,7 +1183,7 @@
       <c r="S13" s="31"/>
       <c r="T13" s="32"/>
     </row>
-    <row r="14" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A14" s="15"/>
       <c r="B14" s="18"/>
       <c r="C14" s="17"/>
@@ -1191,7 +1205,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="32"/>
     </row>
-    <row r="15" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A15" s="15"/>
       <c r="B15" s="18"/>
       <c r="C15" s="17"/>
@@ -1213,7 +1227,7 @@
       <c r="S15" s="31"/>
       <c r="T15" s="32"/>
     </row>
-    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A16" s="15"/>
       <c r="B16" s="18"/>
       <c r="C16" s="17"/>
@@ -1235,7 +1249,7 @@
       <c r="S16" s="31"/>
       <c r="T16" s="32"/>
     </row>
-    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A17" s="15"/>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1257,7 +1271,7 @@
       <c r="S17" s="31"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A18" s="15"/>
       <c r="B18" s="18"/>
       <c r="C18" s="17"/>
@@ -1279,7 +1293,7 @@
       <c r="S18" s="31"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A19" s="15"/>
       <c r="B19" s="18"/>
       <c r="C19" s="17"/>
@@ -1301,7 +1315,7 @@
       <c r="S19" s="31"/>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A20" s="15"/>
       <c r="B20" s="18"/>
       <c r="C20" s="17"/>
@@ -1323,7 +1337,7 @@
       <c r="S20" s="31"/>
       <c r="T20" s="32"/>
     </row>
-    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A21" s="15"/>
       <c r="B21" s="18"/>
       <c r="C21" s="17"/>
@@ -1345,7 +1359,7 @@
       <c r="S21" s="31"/>
       <c r="T21" s="32"/>
     </row>
-    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A22" s="15"/>
       <c r="B22" s="18"/>
       <c r="C22" s="17"/>
@@ -1367,7 +1381,7 @@
       <c r="S22" s="31"/>
       <c r="T22" s="32"/>
     </row>
-    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A23" s="15"/>
       <c r="B23" s="18"/>
       <c r="C23" s="17"/>
@@ -1389,7 +1403,7 @@
       <c r="S23" s="31"/>
       <c r="T23" s="32"/>
     </row>
-    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A24" s="15"/>
       <c r="B24" s="18"/>
       <c r="C24" s="17"/>
@@ -1411,7 +1425,7 @@
       <c r="S24" s="31"/>
       <c r="T24" s="32"/>
     </row>
-    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A25" s="15"/>
       <c r="B25" s="18"/>
       <c r="C25" s="17"/>
@@ -1433,7 +1447,7 @@
       <c r="S25" s="31"/>
       <c r="T25" s="32"/>
     </row>
-    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A26" s="15"/>
       <c r="B26" s="18"/>
       <c r="C26" s="17"/>
@@ -1455,7 +1469,7 @@
       <c r="S26" s="31"/>
       <c r="T26" s="32"/>
     </row>
-    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A27" s="15"/>
       <c r="B27" s="18"/>
       <c r="C27" s="17"/>
@@ -1477,7 +1491,7 @@
       <c r="S27" s="31"/>
       <c r="T27" s="32"/>
     </row>
-    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A28" s="15"/>
       <c r="B28" s="18"/>
       <c r="C28" s="17"/>
@@ -1499,7 +1513,7 @@
       <c r="S28" s="31"/>
       <c r="T28" s="32"/>
     </row>
-    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A29" s="15"/>
       <c r="B29" s="18"/>
       <c r="C29" s="17"/>
@@ -1521,7 +1535,7 @@
       <c r="S29" s="31"/>
       <c r="T29" s="32"/>
     </row>
-    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A30" s="15"/>
       <c r="B30" s="18"/>
       <c r="C30" s="17"/>
@@ -1543,7 +1557,7 @@
       <c r="S30" s="31"/>
       <c r="T30" s="32"/>
     </row>
-    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A31" s="19"/>
       <c r="B31" s="20"/>
       <c r="C31" s="19"/>
@@ -1565,7 +1579,7 @@
       <c r="S31" s="20"/>
       <c r="T31" s="32"/>
     </row>
-    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="10" customFormat="1" ht="16.5">
       <c r="A32" s="19"/>
       <c r="B32" s="20"/>
       <c r="C32" s="19"/>
@@ -1587,7 +1601,7 @@
       <c r="S32" s="20"/>
       <c r="T32" s="32"/>
     </row>
-    <row r="33" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:19" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="22"/>
       <c r="C33" s="21"/>
@@ -1608,7 +1622,7 @@
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:19" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="22"/>
       <c r="C34" s="21"/>
@@ -1629,7 +1643,7 @@
       <c r="R34" s="21"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:19" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="22"/>
       <c r="C35" s="21"/>
@@ -1650,7 +1664,7 @@
       <c r="R35" s="21"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:19" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="22"/>
       <c r="C36" s="21"/>
@@ -1671,7 +1685,7 @@
       <c r="R36" s="21"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:19" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -1692,7 +1706,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:19" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -1713,7 +1727,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:19" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -1734,7 +1748,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:19" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -1755,7 +1769,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:19" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -1776,7 +1790,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:19" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -1797,7 +1811,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:19" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -1818,7 +1832,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:19" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -1839,7 +1853,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:19" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -1860,7 +1874,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:19" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -1881,7 +1895,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:19" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -1902,7 +1916,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:19" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -1923,7 +1937,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -1944,7 +1958,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -1965,7 +1979,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -1986,7 +2000,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2007,7 +2021,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2028,7 +2042,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2049,7 +2063,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2070,7 +2084,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2091,7 +2105,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2112,7 +2126,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2133,7 +2147,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2154,7 +2168,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2175,7 +2189,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2196,7 +2210,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2217,7 +2231,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2238,7 +2252,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2259,7 +2273,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2280,7 +2294,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2301,7 +2315,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2322,7 +2336,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2343,7 +2357,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2364,7 +2378,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2385,7 +2399,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -2406,7 +2420,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -2427,7 +2441,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -2448,7 +2462,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -2469,7 +2483,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -2490,7 +2504,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -2511,7 +2525,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -2532,7 +2546,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -2553,7 +2567,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -2574,7 +2588,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -2595,7 +2609,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -2616,7 +2630,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -2637,7 +2651,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -2658,7 +2672,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -2679,7 +2693,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -2700,7 +2714,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -2721,7 +2735,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -2742,7 +2756,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -2763,7 +2777,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -2784,7 +2798,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -2805,7 +2819,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -2826,7 +2840,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -2847,7 +2861,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -2868,7 +2882,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -2889,7 +2903,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -2910,7 +2924,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -2931,7 +2945,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -2952,7 +2966,7 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
@@ -2973,7 +2987,7 @@
       <c r="R98" s="21"/>
       <c r="S98" s="22"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="21"/>
       <c r="B99" s="22"/>
       <c r="C99" s="21"/>
@@ -2994,7 +3008,7 @@
       <c r="R99" s="21"/>
       <c r="S99" s="22"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="21"/>
       <c r="B100" s="22"/>
       <c r="C100" s="21"/>
@@ -3015,7 +3029,7 @@
       <c r="R100" s="21"/>
       <c r="S100" s="22"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="21"/>
       <c r="B101" s="22"/>
       <c r="C101" s="21"/>
@@ -3036,7 +3050,7 @@
       <c r="R101" s="21"/>
       <c r="S101" s="22"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="21"/>
       <c r="B102" s="22"/>
       <c r="C102" s="21"/>
@@ -3057,7 +3071,7 @@
       <c r="R102" s="21"/>
       <c r="S102" s="22"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="21"/>
       <c r="B103" s="22"/>
       <c r="C103" s="21"/>
@@ -3078,7 +3092,7 @@
       <c r="R103" s="21"/>
       <c r="S103" s="22"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="21"/>
       <c r="B104" s="22"/>
       <c r="C104" s="21"/>
@@ -3099,7 +3113,7 @@
       <c r="R104" s="21"/>
       <c r="S104" s="22"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="21"/>
       <c r="B105" s="22"/>
       <c r="C105" s="21"/>
@@ -3120,7 +3134,7 @@
       <c r="R105" s="21"/>
       <c r="S105" s="22"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="21"/>
       <c r="B106" s="22"/>
       <c r="C106" s="21"/>
@@ -3141,7 +3155,7 @@
       <c r="R106" s="21"/>
       <c r="S106" s="22"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="21"/>
       <c r="B107" s="22"/>
       <c r="C107" s="21"/>
@@ -3162,7 +3176,7 @@
       <c r="R107" s="21"/>
       <c r="S107" s="22"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="21"/>
       <c r="B108" s="22"/>
       <c r="C108" s="21"/>
@@ -3183,7 +3197,7 @@
       <c r="R108" s="21"/>
       <c r="S108" s="22"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="21"/>
       <c r="B109" s="22"/>
       <c r="C109" s="21"/>
@@ -3204,7 +3218,7 @@
       <c r="R109" s="21"/>
       <c r="S109" s="22"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="21"/>
       <c r="B110" s="22"/>
       <c r="C110" s="21"/>
@@ -3225,7 +3239,7 @@
       <c r="R110" s="21"/>
       <c r="S110" s="22"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="21"/>
       <c r="B111" s="22"/>
       <c r="C111" s="21"/>
@@ -3246,7 +3260,7 @@
       <c r="R111" s="21"/>
       <c r="S111" s="22"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="21"/>
       <c r="B112" s="22"/>
       <c r="C112" s="21"/>
@@ -3267,7 +3281,7 @@
       <c r="R112" s="21"/>
       <c r="S112" s="22"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="21"/>
       <c r="B113" s="22"/>
       <c r="C113" s="21"/>
@@ -3288,7 +3302,7 @@
       <c r="R113" s="21"/>
       <c r="S113" s="22"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="21"/>
       <c r="B114" s="22"/>
       <c r="C114" s="21"/>
@@ -3309,7 +3323,7 @@
       <c r="R114" s="21"/>
       <c r="S114" s="22"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="21"/>
       <c r="B115" s="22"/>
       <c r="C115" s="21"/>
@@ -3330,7 +3344,7 @@
       <c r="R115" s="21"/>
       <c r="S115" s="22"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="21"/>
       <c r="B116" s="22"/>
       <c r="C116" s="21"/>
@@ -3351,7 +3365,7 @@
       <c r="R116" s="21"/>
       <c r="S116" s="22"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="21"/>
       <c r="B117" s="22"/>
       <c r="C117" s="21"/>
@@ -3372,7 +3386,7 @@
       <c r="R117" s="21"/>
       <c r="S117" s="22"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="21"/>
       <c r="B118" s="22"/>
       <c r="C118" s="21"/>
@@ -3393,7 +3407,7 @@
       <c r="R118" s="21"/>
       <c r="S118" s="22"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="21"/>
       <c r="B119" s="22"/>
       <c r="C119" s="21"/>
@@ -3414,7 +3428,7 @@
       <c r="R119" s="21"/>
       <c r="S119" s="22"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="21"/>
       <c r="B120" s="22"/>
       <c r="C120" s="21"/>
@@ -3435,7 +3449,7 @@
       <c r="R120" s="21"/>
       <c r="S120" s="22"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="21"/>
       <c r="B121" s="22"/>
       <c r="C121" s="21"/>
@@ -3456,7 +3470,7 @@
       <c r="R121" s="21"/>
       <c r="S121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="21"/>
       <c r="B122" s="22"/>
       <c r="C122" s="21"/>
@@ -3477,7 +3491,7 @@
       <c r="R122" s="21"/>
       <c r="S122" s="22"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="21"/>
       <c r="B123" s="22"/>
       <c r="C123" s="21"/>
@@ -3498,7 +3512,7 @@
       <c r="R123" s="21"/>
       <c r="S123" s="22"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="21"/>
       <c r="B124" s="22"/>
       <c r="C124" s="21"/>
@@ -3519,7 +3533,7 @@
       <c r="R124" s="21"/>
       <c r="S124" s="22"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="21"/>
       <c r="B125" s="22"/>
       <c r="C125" s="21"/>
@@ -3540,7 +3554,7 @@
       <c r="R125" s="21"/>
       <c r="S125" s="22"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="21"/>
       <c r="B126" s="22"/>
       <c r="C126" s="21"/>
@@ -3561,7 +3575,7 @@
       <c r="R126" s="21"/>
       <c r="S126" s="22"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="21"/>
       <c r="B127" s="22"/>
       <c r="C127" s="21"/>
@@ -3582,7 +3596,7 @@
       <c r="R127" s="21"/>
       <c r="S127" s="22"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="21"/>
       <c r="B128" s="22"/>
       <c r="C128" s="21"/>
@@ -3603,7 +3617,7 @@
       <c r="R128" s="21"/>
       <c r="S128" s="22"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="21"/>
       <c r="B129" s="22"/>
       <c r="C129" s="21"/>
@@ -3624,7 +3638,7 @@
       <c r="R129" s="21"/>
       <c r="S129" s="22"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="21"/>
       <c r="B130" s="22"/>
       <c r="C130" s="21"/>
@@ -3645,7 +3659,7 @@
       <c r="R130" s="21"/>
       <c r="S130" s="22"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="21"/>
       <c r="B131" s="22"/>
       <c r="C131" s="21"/>
@@ -3666,7 +3680,7 @@
       <c r="R131" s="21"/>
       <c r="S131" s="22"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="21"/>
       <c r="B132" s="22"/>
       <c r="C132" s="21"/>
@@ -3687,7 +3701,7 @@
       <c r="R132" s="21"/>
       <c r="S132" s="22"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="21"/>
       <c r="B133" s="22"/>
       <c r="C133" s="21"/>
@@ -3708,7 +3722,7 @@
       <c r="R133" s="21"/>
       <c r="S133" s="22"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="21"/>
       <c r="B134" s="22"/>
       <c r="C134" s="21"/>
@@ -3729,7 +3743,7 @@
       <c r="R134" s="21"/>
       <c r="S134" s="22"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="21"/>
       <c r="B135" s="22"/>
       <c r="C135" s="21"/>
@@ -3750,7 +3764,7 @@
       <c r="R135" s="21"/>
       <c r="S135" s="22"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="21"/>
       <c r="B136" s="22"/>
       <c r="C136" s="21"/>
@@ -3771,7 +3785,7 @@
       <c r="R136" s="21"/>
       <c r="S136" s="22"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="21"/>
       <c r="B137" s="22"/>
       <c r="C137" s="21"/>
@@ -3792,7 +3806,7 @@
       <c r="R137" s="21"/>
       <c r="S137" s="22"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="21"/>
       <c r="B138" s="22"/>
       <c r="C138" s="21"/>
@@ -3813,7 +3827,7 @@
       <c r="R138" s="21"/>
       <c r="S138" s="22"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="21"/>
       <c r="B139" s="22"/>
       <c r="C139" s="21"/>
@@ -3834,7 +3848,7 @@
       <c r="R139" s="21"/>
       <c r="S139" s="22"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="21"/>
       <c r="B140" s="22"/>
       <c r="C140" s="21"/>
@@ -3855,7 +3869,7 @@
       <c r="R140" s="21"/>
       <c r="S140" s="22"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="21"/>
       <c r="B141" s="22"/>
       <c r="C141" s="21"/>
@@ -3876,7 +3890,7 @@
       <c r="R141" s="21"/>
       <c r="S141" s="22"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="21"/>
       <c r="B142" s="22"/>
       <c r="C142" s="21"/>
@@ -3897,7 +3911,7 @@
       <c r="R142" s="21"/>
       <c r="S142" s="22"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="21"/>
       <c r="B143" s="22"/>
       <c r="C143" s="21"/>
@@ -3918,7 +3932,7 @@
       <c r="R143" s="21"/>
       <c r="S143" s="22"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="21"/>
       <c r="B144" s="22"/>
       <c r="C144" s="21"/>
@@ -3939,7 +3953,7 @@
       <c r="R144" s="21"/>
       <c r="S144" s="22"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="21"/>
       <c r="B145" s="22"/>
       <c r="C145" s="21"/>
@@ -3960,7 +3974,7 @@
       <c r="R145" s="21"/>
       <c r="S145" s="22"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="21"/>
       <c r="B146" s="22"/>
       <c r="C146" s="21"/>
@@ -3981,7 +3995,7 @@
       <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="21"/>
       <c r="B147" s="22"/>
       <c r="C147" s="21"/>
@@ -4002,7 +4016,7 @@
       <c r="R147" s="21"/>
       <c r="S147" s="22"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="21"/>
       <c r="B148" s="22"/>
       <c r="C148" s="21"/>
@@ -4023,7 +4037,7 @@
       <c r="R148" s="21"/>
       <c r="S148" s="22"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="21"/>
       <c r="B149" s="22"/>
       <c r="C149" s="21"/>
@@ -4044,7 +4058,7 @@
       <c r="R149" s="21"/>
       <c r="S149" s="22"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="21"/>
       <c r="B150" s="22"/>
       <c r="C150" s="21"/>
@@ -4065,7 +4079,7 @@
       <c r="R150" s="21"/>
       <c r="S150" s="22"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="21"/>
       <c r="B151" s="22"/>
       <c r="C151" s="21"/>
@@ -4086,7 +4100,7 @@
       <c r="R151" s="21"/>
       <c r="S151" s="22"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="21"/>
       <c r="B152" s="22"/>
       <c r="C152" s="21"/>
@@ -4107,7 +4121,7 @@
       <c r="R152" s="21"/>
       <c r="S152" s="22"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="21"/>
       <c r="B153" s="22"/>
       <c r="C153" s="21"/>
@@ -4128,7 +4142,7 @@
       <c r="R153" s="21"/>
       <c r="S153" s="22"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="21"/>
       <c r="B154" s="22"/>
       <c r="C154" s="21"/>
@@ -4146,7 +4160,7 @@
       <c r="O154" s="22"/>
       <c r="S154" s="22"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="21"/>
       <c r="B155" s="22"/>
       <c r="C155" s="21"/>
@@ -4164,7 +4178,7 @@
       <c r="O155" s="22"/>
       <c r="S155" s="22"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="21"/>
       <c r="B156" s="22"/>
       <c r="C156" s="21"/>
@@ -4182,7 +4196,7 @@
       <c r="O156" s="22"/>
       <c r="S156" s="22"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="21"/>
       <c r="B157" s="22"/>
       <c r="C157" s="21"/>
@@ -4200,7 +4214,7 @@
       <c r="O157" s="22"/>
       <c r="S157" s="22"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="21"/>
       <c r="B158" s="22"/>
       <c r="C158" s="21"/>
@@ -4218,7 +4232,7 @@
       <c r="O158" s="22"/>
       <c r="S158" s="22"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="21"/>
       <c r="B159" s="22"/>
       <c r="C159" s="21"/>
@@ -4236,7 +4250,7 @@
       <c r="O159" s="22"/>
       <c r="S159" s="22"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="21"/>
       <c r="B160" s="22"/>
       <c r="C160" s="21"/>
@@ -4254,7 +4268,7 @@
       <c r="O160" s="22"/>
       <c r="S160" s="22"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="21"/>
       <c r="B161" s="22"/>
       <c r="C161" s="21"/>
@@ -4272,7 +4286,7 @@
       <c r="O161" s="22"/>
       <c r="S161" s="22"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="21"/>
       <c r="B162" s="22"/>
       <c r="C162" s="21"/>
@@ -4290,7 +4304,7 @@
       <c r="O162" s="22"/>
       <c r="S162" s="22"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="21"/>
       <c r="B163" s="22"/>
       <c r="C163" s="21"/>
@@ -4308,7 +4322,7 @@
       <c r="O163" s="22"/>
       <c r="S163" s="22"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="21"/>
       <c r="B164" s="22"/>
       <c r="C164" s="21"/>
@@ -4326,7 +4340,7 @@
       <c r="O164" s="22"/>
       <c r="S164" s="22"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="21"/>
       <c r="B165" s="22"/>
       <c r="C165" s="21"/>
@@ -4344,7 +4358,7 @@
       <c r="O165" s="22"/>
       <c r="S165" s="22"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="21"/>
       <c r="B166" s="22"/>
       <c r="C166" s="21"/>
@@ -4362,7 +4376,7 @@
       <c r="O166" s="22"/>
       <c r="S166" s="22"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="21"/>
       <c r="B167" s="22"/>
       <c r="C167" s="21"/>
@@ -4380,7 +4394,7 @@
       <c r="O167" s="22"/>
       <c r="S167" s="22"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="21"/>
       <c r="B168" s="22"/>
       <c r="C168" s="21"/>
@@ -4398,7 +4412,7 @@
       <c r="O168" s="22"/>
       <c r="S168" s="22"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="21"/>
       <c r="B169" s="22"/>
       <c r="C169" s="21"/>
@@ -4416,7 +4430,7 @@
       <c r="O169" s="22"/>
       <c r="S169" s="22"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="21"/>
       <c r="B170" s="22"/>
       <c r="C170" s="21"/>
@@ -4434,7 +4448,7 @@
       <c r="O170" s="22"/>
       <c r="S170" s="22"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="21"/>
       <c r="B171" s="22"/>
       <c r="C171" s="21"/>
@@ -4452,7 +4466,7 @@
       <c r="O171" s="22"/>
       <c r="S171" s="22"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="21"/>
       <c r="B172" s="22"/>
       <c r="C172" s="21"/>
@@ -4470,7 +4484,7 @@
       <c r="O172" s="22"/>
       <c r="S172" s="22"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="21"/>
       <c r="B173" s="22"/>
       <c r="C173" s="21"/>
@@ -4488,7 +4502,7 @@
       <c r="O173" s="22"/>
       <c r="S173" s="22"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="21"/>
       <c r="B174" s="22"/>
       <c r="C174" s="21"/>
@@ -4506,7 +4520,7 @@
       <c r="O174" s="22"/>
       <c r="S174" s="22"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="21"/>
       <c r="B175" s="22"/>
       <c r="C175" s="21"/>
@@ -4524,7 +4538,7 @@
       <c r="O175" s="22"/>
       <c r="S175" s="22"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="21"/>
       <c r="B176" s="22"/>
       <c r="C176" s="21"/>
@@ -4542,7 +4556,7 @@
       <c r="O176" s="22"/>
       <c r="S176" s="22"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="21"/>
       <c r="B177" s="22"/>
       <c r="C177" s="21"/>
@@ -4560,7 +4574,7 @@
       <c r="O177" s="22"/>
       <c r="S177" s="22"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="21"/>
       <c r="B178" s="22"/>
       <c r="C178" s="21"/>
@@ -4578,7 +4592,7 @@
       <c r="O178" s="22"/>
       <c r="S178" s="22"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="21"/>
       <c r="B179" s="22"/>
       <c r="C179" s="21"/>
@@ -4596,7 +4610,7 @@
       <c r="O179" s="22"/>
       <c r="S179" s="22"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="21"/>
       <c r="B180" s="22"/>
       <c r="C180" s="21"/>
@@ -4614,7 +4628,7 @@
       <c r="O180" s="22"/>
       <c r="S180" s="22"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="21"/>
       <c r="B181" s="22"/>
       <c r="C181" s="21"/>
@@ -4632,7 +4646,7 @@
       <c r="O181" s="22"/>
       <c r="S181" s="22"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="21"/>
       <c r="B182" s="22"/>
       <c r="C182" s="21"/>
@@ -4650,7 +4664,7 @@
       <c r="O182" s="22"/>
       <c r="S182" s="22"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="21"/>
       <c r="B183" s="22"/>
       <c r="C183" s="21"/>
@@ -4668,7 +4682,7 @@
       <c r="O183" s="22"/>
       <c r="S183" s="22"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="21"/>
       <c r="B184" s="22"/>
       <c r="C184" s="21"/>
@@ -4686,7 +4700,7 @@
       <c r="O184" s="22"/>
       <c r="S184" s="22"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="21"/>
       <c r="B185" s="22"/>
       <c r="C185" s="21"/>
@@ -4704,7 +4718,7 @@
       <c r="O185" s="22"/>
       <c r="S185" s="22"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="21"/>
       <c r="B186" s="22"/>
       <c r="C186" s="21"/>
@@ -4722,7 +4736,7 @@
       <c r="O186" s="22"/>
       <c r="S186" s="22"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="21"/>
       <c r="B187" s="22"/>
       <c r="C187" s="21"/>
@@ -4740,7 +4754,7 @@
       <c r="O187" s="22"/>
       <c r="S187" s="22"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="21"/>
       <c r="B188" s="22"/>
       <c r="C188" s="21"/>
@@ -4767,14 +4781,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -4785,7 +4799,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -4811,7 +4825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4821,7 +4835,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4831,7 +4845,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4841,7 +4855,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4851,7 +4865,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4861,7 +4875,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4871,7 +4885,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4881,7 +4895,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4891,7 +4905,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4901,7 +4915,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4911,7 +4925,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4921,7 +4935,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -4931,7 +4945,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4941,7 +4955,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4951,7 +4965,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4961,7 +4975,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4971,7 +4985,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -4981,7 +4995,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
